--- a/master_data.xlsx
+++ b/master_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kailigregory/Desktop/Thesis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kailigregory/Desktop/Cornell/Thesis/GitHub/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE7432DC-4E14-3643-9204-76628ACC0FEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F59507D-6918-974C-8972-CD029B47610B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="440" yWindow="460" windowWidth="16560" windowHeight="15960" xr2:uid="{AC458198-D308-3348-87DB-2F32DB90E0CE}"/>
+    <workbookView xWindow="80" yWindow="500" windowWidth="27240" windowHeight="15980" activeTab="1" xr2:uid="{AC458198-D308-3348-87DB-2F32DB90E0CE}"/>
   </bookViews>
   <sheets>
     <sheet name="2018" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5076" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5136" uniqueCount="59">
   <si>
     <t>number</t>
   </si>
@@ -634,9 +634,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52FE7C37-5080-304D-9B41-BF89648A3E08}">
   <dimension ref="A1:AP735"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A567" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J735" sqref="J735"/>
+    <sheetView topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A433" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K441" sqref="K441:M445"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1021,6 +1021,10 @@
         <f>COUNTIF(I2:I14,"early active")</f>
         <v>1</v>
       </c>
+      <c r="M4">
+        <f>L4/SUM(L$4:L$8)</f>
+        <v>7.6923076923076927E-2</v>
+      </c>
       <c r="N4" t="s">
         <v>13</v>
       </c>
@@ -1144,6 +1148,10 @@
         <f>COUNTIF(I2:I14,"late active")</f>
         <v>6</v>
       </c>
+      <c r="M5">
+        <f t="shared" ref="M5:M8" si="0">L5/SUM(L$4:L$8)</f>
+        <v>0.46153846153846156</v>
+      </c>
       <c r="N5" t="s">
         <v>24</v>
       </c>
@@ -1267,6 +1275,10 @@
         <f>COUNTIF(I2:I14,"mature")</f>
         <v>6</v>
       </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>0.46153846153846156</v>
+      </c>
       <c r="N6" t="s">
         <v>22</v>
       </c>
@@ -1390,6 +1402,10 @@
         <f>COUNTIF(I2:I14,"spawned")</f>
         <v>0</v>
       </c>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:42" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
@@ -1426,6 +1442,10 @@
         <f>COUNTIF(I2:I14,"reabsorbing")</f>
         <v>0</v>
       </c>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
@@ -1663,7 +1683,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3</v>
       </c>
@@ -1698,8 +1718,12 @@
         <f>COUNTIF(I15:I27,"early active")</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M17">
+        <f>L17/SUM(L$17:L$21)</f>
+        <v>0.23076923076923078</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>4</v>
       </c>
@@ -1734,8 +1758,12 @@
         <f>COUNTIF(I15:I27,"late active")</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M18">
+        <f t="shared" ref="M18:M21" si="1">L18/SUM(L$17:L$21)</f>
+        <v>0.38461538461538464</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>5</v>
       </c>
@@ -1770,8 +1798,12 @@
         <f>COUNTIF(I15:I27,"mature")</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M19">
+        <f t="shared" si="1"/>
+        <v>0.38461538461538464</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>6</v>
       </c>
@@ -1806,8 +1838,12 @@
         <f>COUNTIF(I15:I27,"spawned")</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>7</v>
       </c>
@@ -1842,8 +1878,12 @@
         <f>COUNTIF(I15:I27,"reabsorbing")</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>8</v>
       </c>
@@ -1872,7 +1912,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>9</v>
       </c>
@@ -1901,7 +1941,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>10</v>
       </c>
@@ -1930,7 +1970,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>11</v>
       </c>
@@ -1959,7 +1999,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>12</v>
       </c>
@@ -1988,7 +2028,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>13</v>
       </c>
@@ -2021,7 +2061,7 @@
         <v>33.769230769230766</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>1</v>
       </c>
@@ -2051,7 +2091,7 @@
       </c>
       <c r="J28" s="8"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>2</v>
       </c>
@@ -2081,7 +2121,7 @@
       </c>
       <c r="J29" s="8"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>3</v>
       </c>
@@ -2117,8 +2157,12 @@
         <f>COUNTIF(I28:I40,"early active")</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M30">
+        <f>L30/SUM(L$30:L$34)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>4</v>
       </c>
@@ -2154,8 +2198,12 @@
         <f>COUNTIF(I28:I40,"late active")</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M31">
+        <f t="shared" ref="M31:M34" si="2">L31/SUM(L$30:L$34)</f>
+        <v>0.46153846153846156</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>5</v>
       </c>
@@ -2191,8 +2239,12 @@
         <f>COUNTIF(I28:I40,"mature")</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M32">
+        <f t="shared" si="2"/>
+        <v>0.53846153846153844</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>6</v>
       </c>
@@ -2228,8 +2280,12 @@
         <f>COUNTIF(I28:I40,"spawned")</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>7</v>
       </c>
@@ -2265,8 +2321,12 @@
         <f>COUNTIF(I28:I40,"reabsorbing")</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>8</v>
       </c>
@@ -2296,7 +2356,7 @@
       </c>
       <c r="J35" s="8"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>9</v>
       </c>
@@ -2326,7 +2386,7 @@
       </c>
       <c r="J36" s="8"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>10</v>
       </c>
@@ -2356,7 +2416,7 @@
       </c>
       <c r="J37" s="8"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>11</v>
       </c>
@@ -2386,7 +2446,7 @@
       </c>
       <c r="J38" s="8"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>12</v>
       </c>
@@ -2416,7 +2476,7 @@
       </c>
       <c r="J39" s="8"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>13</v>
       </c>
@@ -2449,7 +2509,7 @@
         <v>48.07692307692308</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1</v>
       </c>
@@ -2479,7 +2539,7 @@
       </c>
       <c r="J41" s="8"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>2</v>
       </c>
@@ -2508,7 +2568,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>3</v>
       </c>
@@ -2543,8 +2603,12 @@
         <f>COUNTIF(I41:I53,"early active")</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M43">
+        <f>L43/SUM(L$43:L$47)</f>
+        <v>7.6923076923076927E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>4</v>
       </c>
@@ -2579,8 +2643,12 @@
         <f>COUNTIF(I41:I53,"late active")</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M44">
+        <f t="shared" ref="M44:M47" si="3">L44/SUM(L$43:L$47)</f>
+        <v>7.6923076923076927E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>5</v>
       </c>
@@ -2615,8 +2683,12 @@
         <f>COUNTIF(I41:I53,"mature")</f>
         <v>9</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M45">
+        <f t="shared" si="3"/>
+        <v>0.69230769230769229</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>6</v>
       </c>
@@ -2651,8 +2723,12 @@
         <f>COUNTIF(I41:I53,"spawned")</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M46">
+        <f t="shared" si="3"/>
+        <v>0.15384615384615385</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>7</v>
       </c>
@@ -2687,8 +2763,12 @@
         <f>COUNTIF(I41:I53,"reabsorbing")</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M47">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>8</v>
       </c>
@@ -2717,7 +2797,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>9</v>
       </c>
@@ -2746,7 +2826,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>10</v>
       </c>
@@ -2775,7 +2855,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>11</v>
       </c>
@@ -2804,7 +2884,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>12</v>
       </c>
@@ -2833,7 +2913,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>13</v>
       </c>
@@ -2866,7 +2946,7 @@
         <v>38.769230769230766</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
         <v>1</v>
       </c>
@@ -2895,7 +2975,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" s="5">
         <v>2</v>
       </c>
@@ -2924,7 +3004,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" s="5">
         <v>3</v>
       </c>
@@ -2959,8 +3039,12 @@
         <f>COUNTIF(I54:I66,"early active")</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M56">
+        <f>L56/SUM(L$56:L$60)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" s="5">
         <v>4</v>
       </c>
@@ -2995,8 +3079,12 @@
         <f>COUNTIF(I54:I66,"late active")</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M57">
+        <f>L57/SUM(L$56:L$60)</f>
+        <v>0.23076923076923078</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" s="5">
         <v>5</v>
       </c>
@@ -3031,8 +3119,12 @@
         <f>COUNTIF(I54:I66,"mature")</f>
         <v>9</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M58">
+        <f t="shared" ref="M58:M60" si="4">L58/SUM(L$56:L$60)</f>
+        <v>0.69230769230769229</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" s="5">
         <v>6</v>
       </c>
@@ -3067,8 +3159,12 @@
         <f>COUNTIF(I54:I66,"spawned")</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M59">
+        <f t="shared" si="4"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" s="5">
         <v>7</v>
       </c>
@@ -3103,8 +3199,12 @@
         <f>COUNTIF(I54:I66,"reabsorbing")</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M60">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" s="5">
         <v>8</v>
       </c>
@@ -3133,7 +3233,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" s="5">
         <v>9</v>
       </c>
@@ -3162,7 +3262,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" s="5">
         <v>10</v>
       </c>
@@ -3191,7 +3291,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" s="5">
         <v>11</v>
       </c>
@@ -3220,7 +3320,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" s="5">
         <v>12</v>
       </c>
@@ -3249,7 +3349,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" s="5">
         <v>13</v>
       </c>
@@ -3282,7 +3382,7 @@
         <v>49.92307692307692</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>1</v>
       </c>
@@ -3311,7 +3411,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>2</v>
       </c>
@@ -3340,7 +3440,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>3</v>
       </c>
@@ -3375,8 +3475,12 @@
         <f>COUNTIF(I67:I79,"early active")</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M69">
+        <f>L69/SUM(L$69:L$73)</f>
+        <v>7.6923076923076927E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>4</v>
       </c>
@@ -3411,8 +3515,12 @@
         <f>COUNTIF(I67:I79,"late active")</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M70">
+        <f t="shared" ref="M70:M73" si="5">L70/SUM(L$69:L$73)</f>
+        <v>0.15384615384615385</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>5</v>
       </c>
@@ -3447,8 +3555,12 @@
         <f>COUNTIF(I67:I79,"mature")</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M71">
+        <f t="shared" si="5"/>
+        <v>0.76923076923076927</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>6</v>
       </c>
@@ -3483,8 +3595,12 @@
         <f>COUNTIF(I67:I79,"spawned")</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M72">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>7</v>
       </c>
@@ -3519,8 +3635,12 @@
         <f>COUNTIF(I67:I79,"reabsorbing")</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M73">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>8</v>
       </c>
@@ -3549,7 +3669,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>9</v>
       </c>
@@ -3578,7 +3698,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>10</v>
       </c>
@@ -3607,7 +3727,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>11</v>
       </c>
@@ -3636,7 +3756,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>12</v>
       </c>
@@ -3665,7 +3785,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>13</v>
       </c>
@@ -3698,7 +3818,7 @@
         <v>58.07692307692308</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" s="9">
         <v>1</v>
       </c>
@@ -3727,7 +3847,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" s="9">
         <v>2</v>
       </c>
@@ -3756,7 +3876,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" s="9">
         <v>3</v>
       </c>
@@ -3791,8 +3911,12 @@
         <f>COUNTIF(I80:I89,"early active")</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M82">
+        <f>L82/SUM(L$82:L$86)</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" s="9">
         <v>4</v>
       </c>
@@ -3827,8 +3951,12 @@
         <f>COUNTIF(I80:I89,"late active")</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M83">
+        <f t="shared" ref="M83:M86" si="6">L83/SUM(L$82:L$86)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" s="9">
         <v>5</v>
       </c>
@@ -3863,8 +3991,12 @@
         <f>COUNTIF(I80:I89,"mature")</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M84">
+        <f t="shared" si="6"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" s="9">
         <v>6</v>
       </c>
@@ -3899,8 +4031,12 @@
         <f>COUNTIF(I80:I89,"spawned")</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M85">
+        <f t="shared" si="6"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86" s="9">
         <v>7</v>
       </c>
@@ -3935,8 +4071,12 @@
         <f>COUNTIF(I80:I89,"reabsorbing")</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M86">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" s="9">
         <v>8</v>
       </c>
@@ -3965,7 +4105,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" s="9">
         <v>10</v>
       </c>
@@ -3994,7 +4134,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" s="9">
         <v>11</v>
       </c>
@@ -4027,7 +4167,7 @@
         <v>62.5</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>1</v>
       </c>
@@ -4056,7 +4196,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>2</v>
       </c>
@@ -4085,7 +4225,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>3</v>
       </c>
@@ -4120,8 +4260,12 @@
         <f>COUNTIF(I90:I102,"early active")</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M92">
+        <f>L92/SUM(L$92:L$96)</f>
+        <v>0.53846153846153844</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>4</v>
       </c>
@@ -4156,8 +4300,12 @@
         <f>COUNTIF(I90:I102,"late active")</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M93">
+        <f t="shared" ref="M93:M96" si="7">L93/SUM(L$92:L$96)</f>
+        <v>0.46153846153846156</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>5</v>
       </c>
@@ -4192,8 +4340,12 @@
         <f>COUNTIF(I90:I102,"mature")</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M94">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>6</v>
       </c>
@@ -4228,8 +4380,12 @@
         <f>COUNTIF(I90:I102,"spawned")</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M95">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>7</v>
       </c>
@@ -4264,8 +4420,12 @@
         <f>COUNTIF(I90:I102,"reabsorbing")</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M96">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>8</v>
       </c>
@@ -4294,7 +4454,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>9</v>
       </c>
@@ -4323,7 +4483,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>10</v>
       </c>
@@ -4352,7 +4512,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>11</v>
       </c>
@@ -4381,7 +4541,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>12</v>
       </c>
@@ -4410,7 +4570,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>13</v>
       </c>
@@ -4443,7 +4603,7 @@
         <v>46.384615384615387</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A103" s="9">
         <v>1</v>
       </c>
@@ -4472,7 +4632,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A104" s="9">
         <v>2</v>
       </c>
@@ -4501,7 +4661,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A105" s="9">
         <v>3</v>
       </c>
@@ -4536,8 +4696,12 @@
         <f>COUNTIF(I103:I115,"early active")</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M105">
+        <f>L105/SUM(L$105:L$109)</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A106" s="9">
         <v>4</v>
       </c>
@@ -4572,8 +4736,12 @@
         <f>COUNTIF(I103:I115,"late active")</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M106">
+        <f t="shared" ref="M106:M109" si="8">L106/SUM(L$105:L$109)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A107" s="9">
         <v>5</v>
       </c>
@@ -4608,8 +4776,12 @@
         <f>COUNTIF(I103:I115,"mature")</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M107">
+        <f t="shared" si="8"/>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A108" s="9">
         <v>6</v>
       </c>
@@ -4644,8 +4816,12 @@
         <f>COUNTIF(I103:I115,"spawned")</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M108">
+        <f t="shared" si="8"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A109" s="9">
         <v>7</v>
       </c>
@@ -4680,8 +4856,12 @@
         <f>COUNTIF(I103:I115,"reabsorbing")</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M109">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A110" s="9">
         <v>8</v>
       </c>
@@ -4710,7 +4890,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A111" s="9">
         <v>9</v>
       </c>
@@ -4739,7 +4919,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A112" s="9">
         <v>10</v>
       </c>
@@ -4768,7 +4948,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A113" s="9">
         <v>11</v>
       </c>
@@ -4797,7 +4977,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A114" s="9">
         <v>12</v>
       </c>
@@ -4826,7 +5006,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A115" s="9">
         <v>13</v>
       </c>
@@ -4859,7 +5039,7 @@
         <v>72.461538461538467</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>1</v>
       </c>
@@ -4888,7 +5068,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>2</v>
       </c>
@@ -4917,7 +5097,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>3</v>
       </c>
@@ -4952,8 +5132,12 @@
         <f>COUNTIF(I116:I135,"early active")</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M118">
+        <f>L118/SUM(L$118:L$122)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>4</v>
       </c>
@@ -4988,8 +5172,12 @@
         <f>COUNTIF(I116:I135,"late active")</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M119">
+        <f t="shared" ref="M119:M122" si="9">L119/SUM(L$118:L$122)</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>5</v>
       </c>
@@ -5024,8 +5212,12 @@
         <f>COUNTIF(I116:I135,"mature")</f>
         <v>15</v>
       </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M120">
+        <f t="shared" si="9"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>6</v>
       </c>
@@ -5060,8 +5252,12 @@
         <f>COUNTIF(I116:I135,"spawned")</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M121">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>7</v>
       </c>
@@ -5096,8 +5292,12 @@
         <f>COUNTIF(I116:I135,"reabsorbing")</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M122">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>8</v>
       </c>
@@ -5126,7 +5326,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>9</v>
       </c>
@@ -5155,7 +5355,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>10</v>
       </c>
@@ -5184,7 +5384,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>11</v>
       </c>
@@ -5213,7 +5413,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>12</v>
       </c>
@@ -5242,7 +5442,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>13</v>
       </c>
@@ -5271,7 +5471,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>14</v>
       </c>
@@ -5300,7 +5500,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>15</v>
       </c>
@@ -5329,7 +5529,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>16</v>
       </c>
@@ -5358,7 +5558,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>17</v>
       </c>
@@ -5387,7 +5587,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>18</v>
       </c>
@@ -5416,7 +5616,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>19</v>
       </c>
@@ -5445,7 +5645,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>20</v>
       </c>
@@ -5478,7 +5678,7 @@
         <v>40.75</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A136" s="9">
         <v>1</v>
       </c>
@@ -5507,7 +5707,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A137" s="9">
         <v>2</v>
       </c>
@@ -5536,7 +5736,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A138" s="9">
         <v>3</v>
       </c>
@@ -5571,8 +5771,12 @@
         <f>COUNTIF(I136:I147,"early active")</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M138">
+        <f>L138/SUM(L$138:L$142)</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A139" s="9">
         <v>4</v>
       </c>
@@ -5607,8 +5811,12 @@
         <f>COUNTIF(I136:I147,"late active")</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M139">
+        <f>L139/SUM(L$138:L$142)</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A140" s="9">
         <v>5</v>
       </c>
@@ -5643,8 +5851,12 @@
         <f>COUNTIF(I136:I147,"mature")</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M140">
+        <f t="shared" ref="M140:M142" si="10">L140/SUM(L$138:L$142)</f>
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A141" s="9">
         <v>6</v>
       </c>
@@ -5679,8 +5891,12 @@
         <f>COUNTIF(I136:I147,"spawned")</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M141">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A142" s="9">
         <v>7</v>
       </c>
@@ -5715,8 +5931,12 @@
         <f>COUNTIF(I136:I147,"reabsorbing")</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M142">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A143" s="9">
         <v>8</v>
       </c>
@@ -5745,7 +5965,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A144" s="9">
         <v>9</v>
       </c>
@@ -5774,7 +5994,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A145" s="9">
         <v>10</v>
       </c>
@@ -5803,7 +6023,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A146" s="9">
         <v>11</v>
       </c>
@@ -5832,7 +6052,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A147" s="9">
         <v>12</v>
       </c>
@@ -5865,7 +6085,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>1</v>
       </c>
@@ -5894,7 +6114,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>2</v>
       </c>
@@ -5923,7 +6143,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>3</v>
       </c>
@@ -5958,8 +6178,12 @@
         <f>COUNTIF(I148:I167,"early active")</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M150">
+        <f>L150/SUM(L$150:L$154)</f>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>4</v>
       </c>
@@ -5994,8 +6218,12 @@
         <f>COUNTIF(I148:I167,"late active")</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M151">
+        <f t="shared" ref="M151:M154" si="11">L151/SUM(L$150:L$154)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>5</v>
       </c>
@@ -6030,8 +6258,12 @@
         <f>COUNTIF(I148:I167,"mature")</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M152">
+        <f t="shared" si="11"/>
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>6</v>
       </c>
@@ -6066,8 +6298,12 @@
         <f>COUNTIF(I148:I167,"spawned")</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M153">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>7</v>
       </c>
@@ -6102,8 +6338,12 @@
         <f>COUNTIF(I148:I167,"reabsorbing")</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M154">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>8</v>
       </c>
@@ -6132,7 +6372,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>9</v>
       </c>
@@ -6161,7 +6401,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>10</v>
       </c>
@@ -6190,7 +6430,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>11</v>
       </c>
@@ -6219,7 +6459,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>12</v>
       </c>
@@ -6248,7 +6488,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>13</v>
       </c>
@@ -6277,7 +6517,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>14</v>
       </c>
@@ -6306,7 +6546,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>15</v>
       </c>
@@ -6335,7 +6575,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>16</v>
       </c>
@@ -6364,7 +6604,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>17</v>
       </c>
@@ -6393,7 +6633,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>18</v>
       </c>
@@ -6422,7 +6662,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>19</v>
       </c>
@@ -6451,7 +6691,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>20</v>
       </c>
@@ -6484,7 +6724,7 @@
         <v>42.65</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A168" s="9">
         <v>1</v>
       </c>
@@ -6513,7 +6753,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A169" s="9">
         <v>2</v>
       </c>
@@ -6542,7 +6782,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A170" s="9">
         <v>3</v>
       </c>
@@ -6577,8 +6817,12 @@
         <f>COUNTIF(I168:I187,"early active")</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M170">
+        <f>L170/SUM(L$170:L$174)</f>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A171" s="9">
         <v>4</v>
       </c>
@@ -6613,8 +6857,12 @@
         <f>COUNTIF(I168:I187,"late active")</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M171">
+        <f t="shared" ref="M171:M174" si="12">L171/SUM(L$170:L$174)</f>
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A172" s="9">
         <v>5</v>
       </c>
@@ -6649,8 +6897,12 @@
         <f>COUNTIF(I168:I187,"mature")</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M172">
+        <f t="shared" si="12"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A173" s="9">
         <v>6</v>
       </c>
@@ -6685,8 +6937,12 @@
         <f>COUNTIF(I168:I187,"spawned")</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M173">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A174" s="9">
         <v>7</v>
       </c>
@@ -6721,8 +6977,12 @@
         <f>COUNTIF(I168:I187,"reabsorbing")</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M174">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A175" s="9">
         <v>8</v>
       </c>
@@ -6751,7 +7011,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A176" s="9">
         <v>9</v>
       </c>
@@ -6780,7 +7040,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A177" s="9">
         <v>10</v>
       </c>
@@ -6809,7 +7069,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A178" s="9">
         <v>11</v>
       </c>
@@ -6838,7 +7098,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A179" s="9">
         <v>12</v>
       </c>
@@ -6867,7 +7127,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A180" s="9">
         <v>13</v>
       </c>
@@ -6896,7 +7156,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A181" s="9">
         <v>14</v>
       </c>
@@ -6925,7 +7185,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A182" s="9">
         <v>15</v>
       </c>
@@ -6954,7 +7214,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A183" s="9">
         <v>16</v>
       </c>
@@ -6983,7 +7243,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A184" s="9">
         <v>17</v>
       </c>
@@ -7012,7 +7272,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A185" s="9">
         <v>18</v>
       </c>
@@ -7041,7 +7301,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A186" s="9">
         <v>19</v>
       </c>
@@ -7070,7 +7330,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A187" s="9">
         <v>20</v>
       </c>
@@ -7103,7 +7363,7 @@
         <v>44.7</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>1</v>
       </c>
@@ -7132,7 +7392,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>2</v>
       </c>
@@ -7161,7 +7421,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>3</v>
       </c>
@@ -7196,8 +7456,11 @@
         <f>COUNTIF(I188:I207,"early active")</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>4</v>
       </c>
@@ -7232,8 +7495,12 @@
         <f>COUNTIF(I188:I207,"late active")</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M191">
+        <f>L191/SUM(L$190:L$194)</f>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>5</v>
       </c>
@@ -7268,8 +7535,12 @@
         <f>COUNTIF(I188:I207,"mature")</f>
         <v>17</v>
       </c>
-    </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M192">
+        <f t="shared" ref="M192:M194" si="13">L192/SUM(L$190:L$194)</f>
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>6</v>
       </c>
@@ -7304,8 +7575,12 @@
         <f>COUNTIF(I188:I207,"spawned")</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M193">
+        <f>L193/SUM(L$190:L$194)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>7</v>
       </c>
@@ -7340,8 +7615,12 @@
         <f>COUNTIF(I188:I207,"reabsorbing")</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M194">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>8</v>
       </c>
@@ -7370,7 +7649,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>9</v>
       </c>
@@ -7399,7 +7678,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>10</v>
       </c>
@@ -7428,7 +7707,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>11</v>
       </c>
@@ -7457,7 +7736,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>12</v>
       </c>
@@ -7486,7 +7765,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>13</v>
       </c>
@@ -7515,7 +7794,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>14</v>
       </c>
@@ -7544,7 +7823,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>15</v>
       </c>
@@ -7573,7 +7852,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>16</v>
       </c>
@@ -7602,7 +7881,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>17</v>
       </c>
@@ -7631,7 +7910,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>18</v>
       </c>
@@ -7660,7 +7939,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>19</v>
       </c>
@@ -7689,7 +7968,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>20</v>
       </c>
@@ -7722,7 +8001,7 @@
         <v>57.8</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A208" s="9">
         <v>1</v>
       </c>
@@ -7751,7 +8030,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A209" s="9">
         <v>2</v>
       </c>
@@ -7780,7 +8059,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A210" s="9">
         <v>3</v>
       </c>
@@ -7815,8 +8094,12 @@
         <f>COUNTIF(I208:I227,"early active")</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M210">
+        <f>L210/SUM(L$210:L$214)</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A211" s="9">
         <v>4</v>
       </c>
@@ -7851,8 +8134,12 @@
         <f>COUNTIF(I208:I227,"late active")</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M211">
+        <f t="shared" ref="M211:M214" si="14">L211/SUM(L$210:L$214)</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A212" s="9">
         <v>5</v>
       </c>
@@ -7887,8 +8174,12 @@
         <f>COUNTIF(I208:I227,"mature")</f>
         <v>9</v>
       </c>
-    </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M212">
+        <f t="shared" si="14"/>
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A213" s="9">
         <v>6</v>
       </c>
@@ -7923,8 +8214,12 @@
         <f>COUNTIF(I208:I227,"spawned")</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M213">
+        <f t="shared" si="14"/>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A214" s="9">
         <v>7</v>
       </c>
@@ -7959,8 +8254,12 @@
         <f>COUNTIF(I208:I227,"reabsorbing")</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M214">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A215" s="9">
         <v>8</v>
       </c>
@@ -7989,7 +8288,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A216" s="9">
         <v>9</v>
       </c>
@@ -8018,7 +8317,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A217" s="9">
         <v>10</v>
       </c>
@@ -8047,7 +8346,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A218" s="9">
         <v>11</v>
       </c>
@@ -8076,7 +8375,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A219" s="9">
         <v>12</v>
       </c>
@@ -8105,7 +8404,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A220" s="9">
         <v>13</v>
       </c>
@@ -8134,7 +8433,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A221" s="9">
         <v>14</v>
       </c>
@@ -8163,7 +8462,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A222" s="9">
         <v>15</v>
       </c>
@@ -8192,7 +8491,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A223" s="9">
         <v>16</v>
       </c>
@@ -8221,7 +8520,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A224" s="9">
         <v>17</v>
       </c>
@@ -8250,7 +8549,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A225" s="9">
         <v>18</v>
       </c>
@@ -8279,7 +8578,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A226" s="9">
         <v>19</v>
       </c>
@@ -8308,7 +8607,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A227" s="9">
         <v>20</v>
       </c>
@@ -8341,7 +8640,7 @@
         <v>45.55</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>1</v>
       </c>
@@ -8370,7 +8669,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>2</v>
       </c>
@@ -8399,7 +8698,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>3</v>
       </c>
@@ -8434,8 +8733,12 @@
         <f>COUNTIF(I228:I244,"early active")</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M230">
+        <f>L230/SUM(L$230:L$234)</f>
+        <v>0.3125</v>
+      </c>
+    </row>
+    <row r="231" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>4</v>
       </c>
@@ -8470,8 +8773,12 @@
         <f>COUNTIF(I228:I244,"late active")</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M231">
+        <f t="shared" ref="M231:M234" si="15">L231/SUM(L$230:L$234)</f>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>5</v>
       </c>
@@ -8506,8 +8813,12 @@
         <f>COUNTIF(I228:I244,"mature")</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M232">
+        <f t="shared" si="15"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="233" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>6</v>
       </c>
@@ -8542,8 +8853,12 @@
         <f>COUNTIF(I228:I244,"spawned")</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M233">
+        <f t="shared" si="15"/>
+        <v>0.3125</v>
+      </c>
+    </row>
+    <row r="234" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>7</v>
       </c>
@@ -8578,8 +8893,12 @@
         <f>COUNTIF(I228:I244,"reabsorbing")</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M234">
+        <f t="shared" si="15"/>
+        <v>0.1875</v>
+      </c>
+    </row>
+    <row r="235" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>8</v>
       </c>
@@ -8608,7 +8927,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>9</v>
       </c>
@@ -8637,7 +8956,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>11</v>
       </c>
@@ -8666,7 +8985,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>12</v>
       </c>
@@ -8695,7 +9014,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>13</v>
       </c>
@@ -8724,7 +9043,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>14</v>
       </c>
@@ -8753,7 +9072,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>17</v>
       </c>
@@ -8782,7 +9101,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>18</v>
       </c>
@@ -8811,7 +9130,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>19</v>
       </c>
@@ -8840,7 +9159,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>20</v>
       </c>
@@ -8873,7 +9192,7 @@
         <v>46.823529411764703</v>
       </c>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A245" s="9">
         <v>1</v>
       </c>
@@ -8902,7 +9221,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A246" s="9">
         <v>2</v>
       </c>
@@ -8931,7 +9250,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A247" s="9">
         <v>3</v>
       </c>
@@ -8966,8 +9285,12 @@
         <f>COUNTIF(I245:I264,"early active")</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M247">
+        <f>L247/SUM(L$247:L$251)</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="248" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A248" s="9">
         <v>4</v>
       </c>
@@ -9002,8 +9325,12 @@
         <f>COUNTIF(I245:I264,"late active")</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M248">
+        <f t="shared" ref="M248:M251" si="16">L248/SUM(L$247:L$251)</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="249" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A249" s="9">
         <v>5</v>
       </c>
@@ -9038,8 +9365,12 @@
         <f>COUNTIF(I245:I264,"mature")</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M249">
+        <f t="shared" si="16"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="250" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A250" s="9">
         <v>6</v>
       </c>
@@ -9074,8 +9405,12 @@
         <f>COUNTIF(I245:I264,"spawned")</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M250">
+        <f t="shared" si="16"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A251" s="9">
         <v>7</v>
       </c>
@@ -9110,8 +9445,12 @@
         <f>COUNTIF(I245:I264,"reabsorbing")</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M251">
+        <f t="shared" si="16"/>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="252" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A252" s="9">
         <v>8</v>
       </c>
@@ -9140,7 +9479,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A253" s="9">
         <v>9</v>
       </c>
@@ -9169,7 +9508,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A254" s="9">
         <v>10</v>
       </c>
@@ -9198,7 +9537,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A255" s="9">
         <v>11</v>
       </c>
@@ -9227,7 +9566,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A256" s="9">
         <v>12</v>
       </c>
@@ -9256,7 +9595,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A257" s="9">
         <v>13</v>
       </c>
@@ -9285,7 +9624,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A258" s="9">
         <v>14</v>
       </c>
@@ -9314,7 +9653,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A259" s="9">
         <v>15</v>
       </c>
@@ -9343,7 +9682,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A260" s="9">
         <v>16</v>
       </c>
@@ -9372,7 +9711,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A261" s="9">
         <v>17</v>
       </c>
@@ -9401,7 +9740,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A262" s="9">
         <v>18</v>
       </c>
@@ -9430,7 +9769,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A263" s="9">
         <v>19</v>
       </c>
@@ -9459,7 +9798,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A264" s="9">
         <v>20</v>
       </c>
@@ -9492,7 +9831,7 @@
         <v>44.05</v>
       </c>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>1</v>
       </c>
@@ -9521,7 +9860,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>2</v>
       </c>
@@ -9550,7 +9889,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>3</v>
       </c>
@@ -9585,8 +9924,11 @@
         <f>COUNTIF(I265:I282,"early active")</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>4</v>
       </c>
@@ -9621,8 +9963,12 @@
         <f>COUNTIF(I265:I282,"late active")</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M268">
+        <f>L268/SUM(L$267:L$271)</f>
+        <v>5.5555555555555552E-2</v>
+      </c>
+    </row>
+    <row r="269" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>5</v>
       </c>
@@ -9657,8 +10003,12 @@
         <f>COUNTIF(I265:I282,"mature")</f>
         <v>15</v>
       </c>
-    </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M269">
+        <f>L269/SUM(L$267:L$271)</f>
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="270" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>6</v>
       </c>
@@ -9693,8 +10043,12 @@
         <f>COUNTIF(I265:I282,"spawned")</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M270">
+        <f t="shared" ref="M270:M271" si="17">L270/SUM(L$267:L$271)</f>
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="271" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>7</v>
       </c>
@@ -9729,8 +10083,12 @@
         <f>COUNTIF(I265:I282,"reabsorbing")</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M271">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>8</v>
       </c>
@@ -9759,7 +10117,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>9</v>
       </c>
@@ -9788,7 +10146,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>10</v>
       </c>
@@ -9817,7 +10175,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>11</v>
       </c>
@@ -9846,7 +10204,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>12</v>
       </c>
@@ -9875,7 +10233,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>13</v>
       </c>
@@ -9904,7 +10262,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>14</v>
       </c>
@@ -9933,7 +10291,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>15</v>
       </c>
@@ -9962,7 +10320,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>16</v>
       </c>
@@ -9991,7 +10349,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>17</v>
       </c>
@@ -10020,7 +10378,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>18</v>
       </c>
@@ -10053,7 +10411,7 @@
         <v>60.277777777777779</v>
       </c>
     </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A283" s="9">
         <v>1</v>
       </c>
@@ -10082,7 +10440,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A284" s="9">
         <v>2</v>
       </c>
@@ -10111,7 +10469,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A285" s="9">
         <v>3</v>
       </c>
@@ -10146,8 +10504,11 @@
         <f>COUNTIF(I283:I301,"early active")</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A286" s="9">
         <v>4</v>
       </c>
@@ -10182,8 +10543,12 @@
         <f>COUNTIF(I283:I301,"late active")</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M286">
+        <f>L286/SUM(L$285:L$289)</f>
+        <v>0.26315789473684209</v>
+      </c>
+    </row>
+    <row r="287" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A287" s="9">
         <v>5</v>
       </c>
@@ -10218,8 +10583,12 @@
         <f>COUNTIF(I283:I301,"mature")</f>
         <v>9</v>
       </c>
-    </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M287">
+        <f t="shared" ref="M287:M289" si="18">L287/SUM(L$285:L$289)</f>
+        <v>0.47368421052631576</v>
+      </c>
+    </row>
+    <row r="288" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A288" s="9">
         <v>6</v>
       </c>
@@ -10254,8 +10623,12 @@
         <f>COUNTIF(I283:I301,"spawned")</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M288">
+        <f t="shared" si="18"/>
+        <v>0.15789473684210525</v>
+      </c>
+    </row>
+    <row r="289" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A289" s="9">
         <v>7</v>
       </c>
@@ -10290,8 +10663,12 @@
         <f>COUNTIF(I283:I301,"reabsorbing")</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M289">
+        <f t="shared" si="18"/>
+        <v>0.10526315789473684</v>
+      </c>
+    </row>
+    <row r="290" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A290" s="9">
         <v>8</v>
       </c>
@@ -10320,7 +10697,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A291" s="9">
         <v>9</v>
       </c>
@@ -10349,7 +10726,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A292" s="9">
         <v>10</v>
       </c>
@@ -10378,7 +10755,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A293" s="9">
         <v>11</v>
       </c>
@@ -10407,7 +10784,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A294" s="9">
         <v>12</v>
       </c>
@@ -10436,7 +10813,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A295" s="9">
         <v>13</v>
       </c>
@@ -10465,7 +10842,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A296" s="9">
         <v>14</v>
       </c>
@@ -10494,7 +10871,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A297" s="9">
         <v>15</v>
       </c>
@@ -10523,7 +10900,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A298" s="9">
         <v>17</v>
       </c>
@@ -10552,7 +10929,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A299" s="9">
         <v>18</v>
       </c>
@@ -10581,7 +10958,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A300" s="9">
         <v>19</v>
       </c>
@@ -10610,7 +10987,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A301" s="9">
         <v>20</v>
       </c>
@@ -10643,7 +11020,7 @@
         <v>58.315789473684212</v>
       </c>
     </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>1</v>
       </c>
@@ -10669,7 +11046,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>2</v>
       </c>
@@ -10695,7 +11072,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>3</v>
       </c>
@@ -10728,8 +11105,11 @@
         <f>COUNTIF(I302:I320,"early active")</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>4</v>
       </c>
@@ -10761,8 +11141,12 @@
         <f>COUNTIF(I302:I320,"late active")</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M305">
+        <f>L305/SUM(L$304:L$308)</f>
+        <v>0.21052631578947367</v>
+      </c>
+    </row>
+    <row r="306" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>5</v>
       </c>
@@ -10795,8 +11179,12 @@
         <f>COUNTIF(I302:I320,"mature")</f>
         <v>11</v>
       </c>
-    </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M306">
+        <f t="shared" ref="M306:M308" si="19">L306/SUM(L$304:L$308)</f>
+        <v>0.57894736842105265</v>
+      </c>
+    </row>
+    <row r="307" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>6</v>
       </c>
@@ -10828,8 +11216,12 @@
         <f>COUNTIF(I302:I320,"spawned")</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M307">
+        <f t="shared" si="19"/>
+        <v>0.10526315789473684</v>
+      </c>
+    </row>
+    <row r="308" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>7</v>
       </c>
@@ -10861,8 +11253,12 @@
         <f>COUNTIF(I302:I320,"reabsorbing")</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M308">
+        <f t="shared" si="19"/>
+        <v>0.10526315789473684</v>
+      </c>
+    </row>
+    <row r="309" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>8</v>
       </c>
@@ -10888,7 +11284,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>9</v>
       </c>
@@ -10915,7 +11311,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>10</v>
       </c>
@@ -10941,7 +11337,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>11</v>
       </c>
@@ -10967,7 +11363,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>12</v>
       </c>
@@ -10993,7 +11389,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>13</v>
       </c>
@@ -11019,7 +11415,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>14</v>
       </c>
@@ -11045,7 +11441,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>15</v>
       </c>
@@ -11071,7 +11467,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>16</v>
       </c>
@@ -11098,7 +11494,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>17</v>
       </c>
@@ -11125,7 +11521,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>18</v>
       </c>
@@ -11151,7 +11547,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>19</v>
       </c>
@@ -11177,7 +11573,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A321" s="9">
         <v>1</v>
       </c>
@@ -11204,7 +11600,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A322" s="9">
         <v>2</v>
       </c>
@@ -11231,7 +11627,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A323" s="9">
         <v>3</v>
       </c>
@@ -11264,8 +11660,11 @@
         <f>COUNTIF(I321:I332,"early active")</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A324" s="9">
         <v>4</v>
       </c>
@@ -11298,8 +11697,12 @@
         <f>COUNTIF(I321:I332,"late active")</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M324">
+        <f>L324/SUM(L$323:L$327)</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="325" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A325" s="9">
         <v>5</v>
       </c>
@@ -11332,8 +11735,12 @@
         <f>COUNTIF(I321:I332,"mature")</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M325">
+        <f t="shared" ref="M325:M327" si="20">L325/SUM(L$323:L$327)</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="326" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A326" s="9">
         <v>6</v>
       </c>
@@ -11366,8 +11773,12 @@
         <f>COUNTIF(I321:I332,"spawned")</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M326">
+        <f t="shared" si="20"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="327" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A327" s="9">
         <v>7</v>
       </c>
@@ -11400,8 +11811,12 @@
         <f>COUNTIF(I321:I332,"reabsorbing")</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="328" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M327">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A328" s="9">
         <v>8</v>
       </c>
@@ -11428,7 +11843,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="329" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A329" s="9">
         <v>9</v>
       </c>
@@ -11455,7 +11870,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="330" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A330" s="9">
         <v>10</v>
       </c>
@@ -11482,7 +11897,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="331" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A331" s="9">
         <v>11</v>
       </c>
@@ -11509,7 +11924,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="332" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A332" s="9">
         <v>12</v>
       </c>
@@ -11536,7 +11951,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="333" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>1</v>
       </c>
@@ -11565,7 +11980,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="334" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>2</v>
       </c>
@@ -11594,7 +12009,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="335" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>3</v>
       </c>
@@ -11629,8 +12044,11 @@
         <f>COUNTIF(I333:I352,"early active")</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="336" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>4</v>
       </c>
@@ -11665,8 +12083,12 @@
         <f>COUNTIF(I333:I352,"late active")</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="337" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M336">
+        <f>L336/SUM(L$335:L$339)</f>
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="337" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>5</v>
       </c>
@@ -11701,8 +12123,12 @@
         <f>COUNTIF(I333:I352,"mature")</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="338" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M337">
+        <f t="shared" ref="M337:M339" si="21">L337/SUM(L$335:L$339)</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="338" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>6</v>
       </c>
@@ -11737,8 +12163,12 @@
         <f>COUNTIF(I333:I352,"spawned")</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="339" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M338">
+        <f t="shared" si="21"/>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="339" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>7</v>
       </c>
@@ -11773,8 +12203,12 @@
         <f>COUNTIF(I333:I352,"reabsorbing")</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="340" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M339">
+        <f t="shared" si="21"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="340" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>8</v>
       </c>
@@ -11803,7 +12237,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="341" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>9</v>
       </c>
@@ -11832,7 +12266,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="342" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>10</v>
       </c>
@@ -11861,7 +12295,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="343" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>11</v>
       </c>
@@ -11890,7 +12324,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="344" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>12</v>
       </c>
@@ -11919,7 +12353,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="345" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>13</v>
       </c>
@@ -11948,7 +12382,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="346" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>14</v>
       </c>
@@ -11977,7 +12411,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="347" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>15</v>
       </c>
@@ -12006,7 +12440,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="348" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>16</v>
       </c>
@@ -12035,7 +12469,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="349" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>17</v>
       </c>
@@ -12064,7 +12498,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="350" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>18</v>
       </c>
@@ -12093,7 +12527,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="351" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>19</v>
       </c>
@@ -12122,7 +12556,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="352" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>20</v>
       </c>
@@ -12155,7 +12589,7 @@
         <v>49.85</v>
       </c>
     </row>
-    <row r="353" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A353" s="9">
         <v>1</v>
       </c>
@@ -12184,7 +12618,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A354" s="9">
         <v>2</v>
       </c>
@@ -12213,7 +12647,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A355" s="9">
         <v>3</v>
       </c>
@@ -12248,8 +12682,11 @@
         <f>COUNTIF(I353:I372,"early active")</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A356" s="9">
         <v>4</v>
       </c>
@@ -12284,8 +12721,12 @@
         <f>COUNTIF(I353:I372,"late active")</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M356">
+        <f>L356/SUM(L$355:L$359)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="357" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A357" s="9">
         <v>5</v>
       </c>
@@ -12320,8 +12761,12 @@
         <f>COUNTIF(I353:I372,"mature")</f>
         <v>14</v>
       </c>
-    </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M357">
+        <f>L357/SUM(L$355:L$359)</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="358" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A358" s="12">
         <v>6</v>
       </c>
@@ -12356,8 +12801,12 @@
         <f>COUNTIF(I353:I372,"spawned")</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="359" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M358">
+        <f t="shared" ref="M358:M359" si="22">L358/SUM(L$355:L$359)</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="359" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A359" s="9">
         <v>7</v>
       </c>
@@ -12392,8 +12841,12 @@
         <f>COUNTIF(I353:I372,"reabsorbing")</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="360" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M359">
+        <f t="shared" si="22"/>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="360" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A360" s="9">
         <v>8</v>
       </c>
@@ -12422,7 +12875,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="361" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A361" s="9">
         <v>9</v>
       </c>
@@ -12451,7 +12904,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="362" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A362" s="9">
         <v>10</v>
       </c>
@@ -12480,7 +12933,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="363" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A363" s="9">
         <v>11</v>
       </c>
@@ -12509,7 +12962,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="364" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A364" s="9">
         <v>12</v>
       </c>
@@ -12538,7 +12991,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="365" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A365" s="9">
         <v>13</v>
       </c>
@@ -12567,7 +13020,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="366" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A366" s="9">
         <v>14</v>
       </c>
@@ -12596,7 +13049,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="367" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A367" s="9">
         <v>15</v>
       </c>
@@ -12625,7 +13078,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="368" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A368" s="9">
         <v>16</v>
       </c>
@@ -12654,7 +13107,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="369" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A369" s="9">
         <v>17</v>
       </c>
@@ -12683,7 +13136,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="370" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A370" s="9">
         <v>18</v>
       </c>
@@ -12712,7 +13165,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="371" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A371" s="9">
         <v>19</v>
       </c>
@@ -12741,7 +13194,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="372" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A372" s="9">
         <v>20</v>
       </c>
@@ -12774,7 +13227,7 @@
         <v>50.3</v>
       </c>
     </row>
-    <row r="373" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>1</v>
       </c>
@@ -12803,7 +13256,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="374" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>2</v>
       </c>
@@ -12832,7 +13285,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="375" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A375" s="12">
         <v>3</v>
       </c>
@@ -12867,8 +13320,11 @@
         <f>COUNTIF(I373:I392,"early active")</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="376" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M375">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>4</v>
       </c>
@@ -12903,8 +13359,12 @@
         <f>COUNTIF(I373:I392,"late active")</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="377" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M376">
+        <f>L376/SUM(L$375:L$379)</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="377" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>5</v>
       </c>
@@ -12939,8 +13399,12 @@
         <f>COUNTIF(I373:I392,"mature")</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="378" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M377">
+        <f>L377/SUM(L$375:L$379)</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="378" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>6</v>
       </c>
@@ -12975,8 +13439,12 @@
         <f>COUNTIF(I373:I392,"spawned")</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="379" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M378">
+        <f t="shared" ref="M378:M379" si="23">L378/SUM(L$375:L$379)</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>7</v>
       </c>
@@ -13011,8 +13479,12 @@
         <f>COUNTIF(I373:I392,"reabsorbing")</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="380" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M379">
+        <f t="shared" si="23"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="380" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>8</v>
       </c>
@@ -13041,7 +13513,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="381" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>9</v>
       </c>
@@ -13070,7 +13542,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="382" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>10</v>
       </c>
@@ -13099,7 +13571,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="383" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A383" s="12">
         <v>11</v>
       </c>
@@ -13128,7 +13600,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="384" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>12</v>
       </c>
@@ -13157,7 +13629,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="385" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A385" s="12">
         <v>13</v>
       </c>
@@ -13186,7 +13658,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="386" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>14</v>
       </c>
@@ -13215,7 +13687,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="387" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>15</v>
       </c>
@@ -13244,7 +13716,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="388" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>16</v>
       </c>
@@ -13273,7 +13745,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="389" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>17</v>
       </c>
@@ -13302,7 +13774,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="390" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>18</v>
       </c>
@@ -13331,7 +13803,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="391" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>19</v>
       </c>
@@ -13360,7 +13832,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="392" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>20</v>
       </c>
@@ -13393,7 +13865,7 @@
         <v>52.25</v>
       </c>
     </row>
-    <row r="393" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A393" s="9">
         <v>1</v>
       </c>
@@ -13422,7 +13894,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="394" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A394" s="9">
         <v>2</v>
       </c>
@@ -13451,7 +13923,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="395" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A395" s="9">
         <v>3</v>
       </c>
@@ -13486,8 +13958,12 @@
         <f>COUNTIF(I393:I412,"early active")</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="396" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M395">
+        <f>L395/SUM(L$395:L$399)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A396" s="9">
         <v>4</v>
       </c>
@@ -13522,8 +13998,12 @@
         <f>COUNTIF(I393:I412,"late active")</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="397" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M396">
+        <f>L396/SUM(L$395:L$399)</f>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="397" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A397" s="11">
         <v>5</v>
       </c>
@@ -13558,8 +14038,12 @@
         <f>COUNTIF(I393:I412,"mature")</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="398" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M397">
+        <f t="shared" ref="M397:M399" si="24">L397/SUM(L$395:L$399)</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="398" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A398" s="9">
         <v>6</v>
       </c>
@@ -13594,8 +14078,12 @@
         <f>COUNTIF(I393:I412,"spawned")</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="399" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M398">
+        <f t="shared" si="24"/>
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="399" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A399" s="9">
         <v>7</v>
       </c>
@@ -13630,8 +14118,12 @@
         <f>COUNTIF(I393:I412,"reabsorbing")</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="400" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M399">
+        <f t="shared" si="24"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="400" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A400" s="9">
         <v>8</v>
       </c>
@@ -14149,7 +14641,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="417" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <v>5</v>
       </c>
@@ -14185,7 +14677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
         <v>6</v>
       </c>
@@ -14225,7 +14717,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="419" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A419" s="9">
         <v>1</v>
       </c>
@@ -14254,7 +14746,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="420" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A420" s="9">
         <v>2</v>
       </c>
@@ -14283,7 +14775,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="421" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A421" s="9">
         <v>3</v>
       </c>
@@ -14318,8 +14810,12 @@
         <f>COUNTIF(I419:I438,"early active")</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="422" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M421">
+        <f>L421/SUM(L$421:L$425)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A422" s="9">
         <v>4</v>
       </c>
@@ -14354,8 +14850,12 @@
         <f>COUNTIF(I419:I438,"late active")</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="423" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M422">
+        <f t="shared" ref="M422:M425" si="25">L422/SUM(L$421:L$425)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A423" s="9">
         <v>5</v>
       </c>
@@ -14390,8 +14890,12 @@
         <f>COUNTIF(I419:I438,"mature")</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="424" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M423">
+        <f t="shared" si="25"/>
+        <v>5.5555555555555552E-2</v>
+      </c>
+    </row>
+    <row r="424" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A424" s="9">
         <v>6</v>
       </c>
@@ -14426,8 +14930,12 @@
         <f>COUNTIF(I419:I438,"spawned")</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="425" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M424">
+        <f t="shared" si="25"/>
+        <v>5.5555555555555552E-2</v>
+      </c>
+    </row>
+    <row r="425" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A425" s="9">
         <v>7</v>
       </c>
@@ -14462,8 +14970,12 @@
         <f>COUNTIF(I419:I438,"reabsorbing")</f>
         <v>16</v>
       </c>
-    </row>
-    <row r="426" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M425">
+        <f t="shared" si="25"/>
+        <v>0.88888888888888884</v>
+      </c>
+    </row>
+    <row r="426" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A426" s="9">
         <v>8</v>
       </c>
@@ -14492,7 +15004,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="427" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A427" s="9">
         <v>9</v>
       </c>
@@ -14521,7 +15033,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="428" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A428" s="9">
         <v>10</v>
       </c>
@@ -14550,7 +15062,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="429" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A429" s="9">
         <v>11</v>
       </c>
@@ -14579,7 +15091,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="430" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A430" s="9">
         <v>12</v>
       </c>
@@ -14608,7 +15120,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="431" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A431" s="9">
         <v>13</v>
       </c>
@@ -14637,7 +15149,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="432" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A432" s="9">
         <v>14</v>
       </c>
@@ -14666,7 +15178,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="433" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A433" s="9">
         <v>15</v>
       </c>
@@ -14695,7 +15207,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="434" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A434" s="9">
         <v>16</v>
       </c>
@@ -14724,7 +15236,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="435" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A435" s="9">
         <v>17</v>
       </c>
@@ -14753,7 +15265,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="436" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A436" s="9">
         <v>18</v>
       </c>
@@ -14782,7 +15294,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="437" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A437" s="9">
         <v>19</v>
       </c>
@@ -14811,7 +15323,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="438" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A438" s="9">
         <v>20</v>
       </c>
@@ -14844,7 +15356,7 @@
         <v>59.2</v>
       </c>
     </row>
-    <row r="439" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
         <v>1</v>
       </c>
@@ -14873,7 +15385,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="440" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
         <v>2</v>
       </c>
@@ -14902,7 +15414,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="441" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
         <v>3</v>
       </c>
@@ -14937,8 +15449,12 @@
         <f>COUNTIF(I439:I456,"early active")</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="442" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M441">
+        <f>L441/SUM(L$441:L$445)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
         <v>4</v>
       </c>
@@ -14973,8 +15489,12 @@
         <f>COUNTIF(I439:I456,"late active")</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="443" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M442">
+        <f t="shared" ref="M442:M445" si="26">L442/SUM(L$441:L$445)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
         <v>5</v>
       </c>
@@ -15009,8 +15529,12 @@
         <f>COUNTIF(I439:I456,"mature")</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="444" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M443">
+        <f t="shared" si="26"/>
+        <v>0.44444444444444442</v>
+      </c>
+    </row>
+    <row r="444" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
         <v>6</v>
       </c>
@@ -15045,8 +15569,12 @@
         <f>COUNTIF(I439:I456,"spawned")</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="445" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M444">
+        <f t="shared" si="26"/>
+        <v>5.5555555555555552E-2</v>
+      </c>
+    </row>
+    <row r="445" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A445" s="12">
         <v>7</v>
       </c>
@@ -15081,8 +15609,12 @@
         <f>COUNTIF(I439:I456,"reabsorbing")</f>
         <v>9</v>
       </c>
-    </row>
-    <row r="446" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M445">
+        <f t="shared" si="26"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="446" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
         <v>8</v>
       </c>
@@ -15111,7 +15643,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="447" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A447" s="12">
         <v>10</v>
       </c>
@@ -15140,7 +15672,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="448" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A448" s="12">
         <v>11</v>
       </c>
@@ -15169,7 +15701,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="449" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A449" s="12">
         <v>12</v>
       </c>
@@ -15198,7 +15730,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="450" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A450" s="12">
         <v>13</v>
       </c>
@@ -15227,7 +15759,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="451" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A451" s="12">
         <v>14</v>
       </c>
@@ -15256,7 +15788,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="452" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
         <v>15</v>
       </c>
@@ -15285,7 +15817,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="453" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A453" s="1">
         <v>17</v>
       </c>
@@ -15314,7 +15846,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="454" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A454" s="1">
         <v>18</v>
       </c>
@@ -15343,7 +15875,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="455" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A455" s="1">
         <v>19</v>
       </c>
@@ -15372,7 +15904,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="456" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A456" s="1">
         <v>20</v>
       </c>
@@ -15405,7 +15937,7 @@
         <v>50.277777777777779</v>
       </c>
     </row>
-    <row r="457" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A457" s="11">
         <v>1</v>
       </c>
@@ -15432,7 +15964,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="458" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A458" s="11">
         <v>2</v>
       </c>
@@ -15461,7 +15993,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="459" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A459" s="9">
         <v>3</v>
       </c>
@@ -15496,8 +16028,12 @@
         <f>COUNTIF(I457:I476,"early active")</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="460" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M459">
+        <f>L459/SUM(L$459:L$463)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A460" s="11">
         <v>4</v>
       </c>
@@ -15532,8 +16068,12 @@
         <f>COUNTIF(I457:I476,"late active")</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="461" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M460">
+        <f t="shared" ref="M460:M463" si="27">L460/SUM(L$459:L$463)</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="461" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A461" s="9">
         <v>5</v>
       </c>
@@ -15568,8 +16108,12 @@
         <f>COUNTIF(I457:I476,"mature")</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="462" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M461">
+        <f t="shared" si="27"/>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="462" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A462" s="11">
         <v>6</v>
       </c>
@@ -15604,8 +16148,12 @@
         <f>COUNTIF(I457:I476,"spawned")</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="463" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M462">
+        <f>L462/SUM(L$459:L$463)</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="463" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A463" s="9">
         <v>7</v>
       </c>
@@ -15640,8 +16188,12 @@
         <f>COUNTIF(I457:I476,"reabsorbing")</f>
         <v>11</v>
       </c>
-    </row>
-    <row r="464" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M463">
+        <f t="shared" si="27"/>
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="464" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A464" s="9">
         <v>8</v>
       </c>
@@ -15670,7 +16222,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="465" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A465" s="11">
         <v>9</v>
       </c>
@@ -15699,7 +16251,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="466" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A466" s="9">
         <v>10</v>
       </c>
@@ -15728,7 +16280,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="467" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A467" s="11">
         <v>11</v>
       </c>
@@ -15757,7 +16309,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="468" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A468" s="9">
         <v>12</v>
       </c>
@@ -15786,7 +16338,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="469" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A469" s="11">
         <v>13</v>
       </c>
@@ -15815,7 +16367,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="470" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A470" s="11">
         <v>14</v>
       </c>
@@ -15844,7 +16396,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="471" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A471" s="11">
         <v>15</v>
       </c>
@@ -15873,7 +16425,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="472" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A472" s="11">
         <v>16</v>
       </c>
@@ -15902,7 +16454,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="473" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A473" s="9">
         <v>17</v>
       </c>
@@ -15931,7 +16483,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="474" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A474" s="9">
         <v>18</v>
       </c>
@@ -15960,7 +16512,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="475" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A475" s="9">
         <v>19</v>
       </c>
@@ -15989,7 +16541,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="476" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A476" s="9">
         <v>20</v>
       </c>
@@ -16022,7 +16574,7 @@
         <v>56.157894736842103</v>
       </c>
     </row>
-    <row r="477" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A477" s="1">
         <v>1</v>
       </c>
@@ -16051,7 +16603,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="478" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A478" s="11">
         <v>2</v>
       </c>
@@ -16080,7 +16632,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="479" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A479" s="11">
         <v>3</v>
       </c>
@@ -16112,11 +16664,15 @@
         <v>15</v>
       </c>
       <c r="L479">
-        <f>COUNTIF(I477:I496,"early active")</f>
+        <f>COUNTIF(I477:I495,"early active")</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="480" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M479">
+        <f>L479/SUM(L$479:L$483)</f>
+        <v>5.2631578947368418E-2</v>
+      </c>
+    </row>
+    <row r="480" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A480" s="11">
         <v>4</v>
       </c>
@@ -16148,11 +16704,15 @@
         <v>17</v>
       </c>
       <c r="L480">
-        <f>COUNTIF(I477:I496,"late active")</f>
+        <f>COUNTIF(I477:I495,"late active")</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="481" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M480">
+        <f t="shared" ref="M480:M483" si="28">L480/SUM(L$479:L$483)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A481" s="11">
         <v>5</v>
       </c>
@@ -16184,11 +16744,15 @@
         <v>13</v>
       </c>
       <c r="L481">
-        <f>COUNTIF(I477:I496,"mature")</f>
+        <f>COUNTIF(I477:I495,"mature")</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="482" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M481">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A482" s="11">
         <v>6</v>
       </c>
@@ -16220,11 +16784,15 @@
         <v>24</v>
       </c>
       <c r="L482">
-        <f>COUNTIF(I477:I496,"spawned")</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="483" spans="1:12" x14ac:dyDescent="0.2">
+        <f>COUNTIF(I477:I495,"spawned")</f>
+        <v>6</v>
+      </c>
+      <c r="M482">
+        <f t="shared" si="28"/>
+        <v>0.31578947368421051</v>
+      </c>
+    </row>
+    <row r="483" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A483" s="11">
         <v>7</v>
       </c>
@@ -16256,11 +16824,15 @@
         <v>22</v>
       </c>
       <c r="L483">
-        <f>COUNTIF(I477:I496,"reabsorbing")</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="484" spans="1:12" x14ac:dyDescent="0.2">
+        <f>COUNTIF(I477:I495,"reabsorbing")</f>
+        <v>12</v>
+      </c>
+      <c r="M483">
+        <f t="shared" si="28"/>
+        <v>0.63157894736842102</v>
+      </c>
+    </row>
+    <row r="484" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A484" s="11">
         <v>8</v>
       </c>
@@ -16289,7 +16861,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="485" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A485" s="1">
         <v>9</v>
       </c>
@@ -16318,7 +16890,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="486" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A486" s="1">
         <v>10</v>
       </c>
@@ -16347,7 +16919,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="487" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A487" s="11">
         <v>11</v>
       </c>
@@ -16376,7 +16948,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="488" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A488" s="11">
         <v>12</v>
       </c>
@@ -16405,7 +16977,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="489" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A489" s="1">
         <v>13</v>
       </c>
@@ -16434,7 +17006,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="490" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A490" s="11">
         <v>14</v>
       </c>
@@ -16463,7 +17035,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="491" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A491" s="1">
         <v>15</v>
       </c>
@@ -16492,7 +17064,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="492" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A492" s="1">
         <v>16</v>
       </c>
@@ -16521,7 +17093,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="493" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A493" s="1">
         <v>17</v>
       </c>
@@ -16550,7 +17122,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="494" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A494" s="11">
         <v>19</v>
       </c>
@@ -16579,7 +17151,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="495" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A495" s="11">
         <v>20</v>
       </c>
@@ -16612,7 +17184,7 @@
         <v>66.89473684210526</v>
       </c>
     </row>
-    <row r="496" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A496" s="13">
         <v>1</v>
       </c>
@@ -22926,15 +23498,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E45257B-F330-644E-9607-7B0D3DECDB5E}">
-  <dimension ref="A1:H241"/>
+  <dimension ref="A1:L241"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A231" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="L94" sqref="L94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -22960,7 +23532,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -22986,7 +23558,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -23012,7 +23584,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -23038,7 +23610,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -23064,7 +23636,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -23090,7 +23662,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
         <v>6</v>
       </c>
@@ -23115,8 +23687,19 @@
       <c r="H7" s="13" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7">
+        <f>COUNTIF(H2:H21,"early active")</f>
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <f>K7/SUM(K$7:K$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
         <v>7</v>
       </c>
@@ -23141,8 +23724,19 @@
       <c r="H8" s="13" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8">
+        <f>COUNTIF(H2:H21,"late active")</f>
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <f>K8/SUM(K$7:K$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
         <v>8</v>
       </c>
@@ -23167,8 +23761,19 @@
       <c r="H9" s="13" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9">
+        <f>COUNTIF(H2:H21,"mature")</f>
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <f t="shared" ref="L8:L11" si="0">K9/SUM(K$7:K$11)</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
         <v>9</v>
       </c>
@@ -23193,8 +23798,19 @@
       <c r="H10" s="13" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J10" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10">
+        <f>COUNTIF(H2:H21,"spawned")</f>
+        <v>8</v>
+      </c>
+      <c r="L10">
+        <f>K10/SUM(K$7:K$11)</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
         <v>10</v>
       </c>
@@ -23219,8 +23835,19 @@
       <c r="H11" s="13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11">
+        <f>COUNTIF(H2:H21,"reabsorbing")</f>
+        <v>11</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="13">
         <v>11</v>
       </c>
@@ -23246,7 +23873,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="13">
         <v>12</v>
       </c>
@@ -23272,7 +23899,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="13">
         <v>13</v>
       </c>
@@ -23298,7 +23925,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="13">
         <v>14</v>
       </c>
@@ -23324,7 +23951,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="13">
         <v>15</v>
       </c>
@@ -23350,7 +23977,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="13">
         <v>16</v>
       </c>
@@ -23376,7 +24003,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="13">
         <v>17</v>
       </c>
@@ -23402,7 +24029,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="13">
         <v>18</v>
       </c>
@@ -23428,7 +24055,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="13">
         <v>19</v>
       </c>
@@ -23454,7 +24081,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="13">
         <v>20</v>
       </c>
@@ -23480,7 +24107,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1</v>
       </c>
@@ -23506,7 +24133,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2</v>
       </c>
@@ -23532,7 +24159,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>3</v>
       </c>
@@ -23558,7 +24185,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>4</v>
       </c>
@@ -23584,7 +24211,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>5</v>
       </c>
@@ -23610,7 +24237,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>6</v>
       </c>
@@ -23635,8 +24262,19 @@
       <c r="H27" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J27" t="s">
+        <v>15</v>
+      </c>
+      <c r="K27">
+        <f>COUNTIF(H22:H41,"early active")</f>
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <f>K27/SUM(K$27:K$31)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>7</v>
       </c>
@@ -23661,8 +24299,19 @@
       <c r="H28" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J28" t="s">
+        <v>17</v>
+      </c>
+      <c r="K28">
+        <f>COUNTIF(H22:H41,"late active")</f>
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <f t="shared" ref="L28:L31" si="1">K28/SUM(K$27:K$31)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>8</v>
       </c>
@@ -23687,8 +24336,19 @@
       <c r="H29" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J29" t="s">
+        <v>13</v>
+      </c>
+      <c r="K29">
+        <f>COUNTIF(H22:H41,"mature")</f>
+        <v>19</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="1"/>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>9</v>
       </c>
@@ -23713,8 +24373,19 @@
       <c r="H30" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J30" t="s">
+        <v>24</v>
+      </c>
+      <c r="K30">
+        <f>COUNTIF(H22:H41,"spawned")</f>
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="1"/>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>10</v>
       </c>
@@ -23739,8 +24410,19 @@
       <c r="H31" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J31" t="s">
+        <v>22</v>
+      </c>
+      <c r="K31">
+        <f>COUNTIF(H22:H41,"reabsorbing")</f>
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>11</v>
       </c>
@@ -23766,7 +24448,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>12</v>
       </c>
@@ -23792,7 +24474,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>13</v>
       </c>
@@ -23818,7 +24500,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>14</v>
       </c>
@@ -23844,7 +24526,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>15</v>
       </c>
@@ -23870,7 +24552,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>16</v>
       </c>
@@ -23896,7 +24578,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>17</v>
       </c>
@@ -23922,7 +24604,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>18</v>
       </c>
@@ -23948,7 +24630,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>19</v>
       </c>
@@ -23974,7 +24656,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>20</v>
       </c>
@@ -24000,7 +24682,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="13">
         <v>1</v>
       </c>
@@ -24026,7 +24708,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="13">
         <v>2</v>
       </c>
@@ -24052,7 +24734,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="13">
         <v>3</v>
       </c>
@@ -24078,7 +24760,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="13">
         <v>4</v>
       </c>
@@ -24104,7 +24786,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="13">
         <v>5</v>
       </c>
@@ -24130,7 +24812,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="13">
         <v>6</v>
       </c>
@@ -24155,8 +24837,19 @@
       <c r="H47" s="13" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J47" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K47" s="1">
+        <f>COUNTIF(H42:H61,"early active")</f>
+        <v>0</v>
+      </c>
+      <c r="L47" s="1">
+        <f>K47/SUM(K$47:K$51)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="13">
         <v>7</v>
       </c>
@@ -24181,8 +24874,19 @@
       <c r="H48" s="13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J48" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K48" s="1">
+        <f>COUNTIF(H42:H61,"late active")</f>
+        <v>1</v>
+      </c>
+      <c r="L48" s="1">
+        <f>K48/SUM(K$47:K$51)</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="13">
         <v>8</v>
       </c>
@@ -24207,8 +24911,19 @@
       <c r="H49" s="13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J49" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K49" s="1">
+        <f>COUNTIF(H42:H61,"mature")</f>
+        <v>16</v>
+      </c>
+      <c r="L49" s="1">
+        <f t="shared" ref="L48:L51" si="2">K49/SUM(K$47:K$51)</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="13">
         <v>9</v>
       </c>
@@ -24233,8 +24948,19 @@
       <c r="H50" s="13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J50" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K50" s="1">
+        <f>COUNTIF(H42:H61,"spawned")</f>
+        <v>3</v>
+      </c>
+      <c r="L50" s="1">
+        <f t="shared" si="2"/>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="13">
         <v>10</v>
       </c>
@@ -24259,8 +24985,19 @@
       <c r="H51" s="13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J51" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K51" s="1">
+        <f>COUNTIF(H42:H61,"reabsorbing")</f>
+        <v>0</v>
+      </c>
+      <c r="L51" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="13">
         <v>11</v>
       </c>
@@ -24286,7 +25023,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="13">
         <v>12</v>
       </c>
@@ -24312,7 +25049,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="13">
         <v>13</v>
       </c>
@@ -24338,7 +25075,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="13">
         <v>14</v>
       </c>
@@ -24364,7 +25101,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="13">
         <v>15</v>
       </c>
@@ -24390,7 +25127,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="13">
         <v>16</v>
       </c>
@@ -24416,7 +25153,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="13">
         <v>17</v>
       </c>
@@ -24442,7 +25179,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="13">
         <v>18</v>
       </c>
@@ -24468,7 +25205,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="13">
         <v>19</v>
       </c>
@@ -24494,7 +25231,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="13">
         <v>20</v>
       </c>
@@ -24520,7 +25257,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>1</v>
       </c>
@@ -24546,7 +25283,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>2</v>
       </c>
@@ -24572,7 +25309,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>3</v>
       </c>
@@ -24598,7 +25335,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>4</v>
       </c>
@@ -24624,7 +25361,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>5</v>
       </c>
@@ -24650,7 +25387,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>6</v>
       </c>
@@ -24675,8 +25412,19 @@
       <c r="H67" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J67" t="s">
+        <v>15</v>
+      </c>
+      <c r="K67">
+        <f>COUNTIF(H62:H81,"early active")</f>
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <f>K67/SUM(K$67:K$71)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>7</v>
       </c>
@@ -24701,8 +25449,19 @@
       <c r="H68" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J68" t="s">
+        <v>17</v>
+      </c>
+      <c r="K68">
+        <f>COUNTIF(H62:H81,"late active")</f>
+        <v>1</v>
+      </c>
+      <c r="L68">
+        <f t="shared" ref="L68:L71" si="3">K68/SUM(K$67:K$71)</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>8</v>
       </c>
@@ -24727,8 +25486,19 @@
       <c r="H69" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J69" t="s">
+        <v>13</v>
+      </c>
+      <c r="K69">
+        <f>COUNTIF(H62:H81,"mature")</f>
+        <v>10</v>
+      </c>
+      <c r="L69">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>9</v>
       </c>
@@ -24753,8 +25523,19 @@
       <c r="H70" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J70" t="s">
+        <v>24</v>
+      </c>
+      <c r="K70">
+        <f>COUNTIF(H62:H81,"spawned")</f>
+        <v>7</v>
+      </c>
+      <c r="L70">
+        <f t="shared" si="3"/>
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>10</v>
       </c>
@@ -24779,8 +25560,19 @@
       <c r="H71" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J71" t="s">
+        <v>22</v>
+      </c>
+      <c r="K71">
+        <f>COUNTIF(H62:H81,"reabsorbing")</f>
+        <v>2</v>
+      </c>
+      <c r="L71">
+        <f t="shared" si="3"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>11</v>
       </c>
@@ -24806,7 +25598,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>12</v>
       </c>
@@ -24832,7 +25624,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>13</v>
       </c>
@@ -24858,7 +25650,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>14</v>
       </c>
@@ -24884,7 +25676,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>15</v>
       </c>
@@ -24910,7 +25702,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>16</v>
       </c>
@@ -24936,7 +25728,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>17</v>
       </c>
@@ -24962,7 +25754,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>18</v>
       </c>
@@ -24988,7 +25780,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>19</v>
       </c>
@@ -25014,7 +25806,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>20</v>
       </c>
@@ -25040,7 +25832,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" s="14">
         <v>1</v>
       </c>
@@ -25066,7 +25858,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" s="14">
         <v>2</v>
       </c>
@@ -25092,7 +25884,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" s="14">
         <v>3</v>
       </c>
@@ -25118,7 +25910,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" s="14">
         <v>4</v>
       </c>
@@ -25144,7 +25936,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" s="14">
         <v>5</v>
       </c>
@@ -25170,7 +25962,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" s="14">
         <v>6</v>
       </c>
@@ -25195,8 +25987,19 @@
       <c r="H87" s="14" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J87" t="s">
+        <v>15</v>
+      </c>
+      <c r="K87">
+        <f>COUNTIF(H82:H101,"early active")</f>
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <f>K87/SUM(K$87:K$91)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" s="14">
         <v>7</v>
       </c>
@@ -25221,8 +26024,19 @@
       <c r="H88" s="14" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J88" t="s">
+        <v>17</v>
+      </c>
+      <c r="K88">
+        <f>COUNTIF(H82:H101,"late active")</f>
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <f>K88/SUM(K$87:K$91)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89" s="14">
         <v>8</v>
       </c>
@@ -25247,8 +26061,19 @@
       <c r="H89" s="14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J89" t="s">
+        <v>13</v>
+      </c>
+      <c r="K89">
+        <f>COUNTIF(H82:H101,"mature")</f>
+        <v>1</v>
+      </c>
+      <c r="L89">
+        <f>K89/SUM(K$87:K$91)</f>
+        <v>5.8823529411764705E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90" s="14">
         <v>9</v>
       </c>
@@ -25273,8 +26098,19 @@
       <c r="H90" s="14" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J90" t="s">
+        <v>24</v>
+      </c>
+      <c r="K90">
+        <f>COUNTIF(H82:H101,"spawned")</f>
+        <v>1</v>
+      </c>
+      <c r="L90">
+        <f t="shared" ref="L88:L91" si="4">K90/SUM(K$87:K$91)</f>
+        <v>5.8823529411764705E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91" s="14">
         <v>10</v>
       </c>
@@ -25299,8 +26135,19 @@
       <c r="H91" s="14" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J91" t="s">
+        <v>22</v>
+      </c>
+      <c r="K91">
+        <f>COUNTIF(H82:H101,"reabsorbing")</f>
+        <v>15</v>
+      </c>
+      <c r="L91">
+        <f t="shared" si="4"/>
+        <v>0.88235294117647056</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" s="14">
         <v>11</v>
       </c>
@@ -25326,7 +26173,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93" s="14">
         <v>12</v>
       </c>
@@ -25352,7 +26199,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94" s="14">
         <v>13</v>
       </c>
@@ -25378,7 +26225,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95" s="14">
         <v>14</v>
       </c>
@@ -25404,7 +26251,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96" s="14">
         <v>15</v>
       </c>
@@ -25430,7 +26277,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" s="14">
         <v>16</v>
       </c>
@@ -25456,7 +26303,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" s="14">
         <v>17</v>
       </c>
@@ -25482,7 +26329,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99" s="14">
         <v>18</v>
       </c>
@@ -25508,7 +26355,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100" s="14">
         <v>19</v>
       </c>
@@ -25534,7 +26381,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101" s="14">
         <v>20</v>
       </c>
@@ -25560,7 +26407,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>1</v>
       </c>
@@ -25586,7 +26433,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>2</v>
       </c>
@@ -25612,7 +26459,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>3</v>
       </c>
@@ -25638,7 +26485,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>4</v>
       </c>
@@ -25664,7 +26511,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>5</v>
       </c>
@@ -25690,7 +26537,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>6</v>
       </c>
@@ -25715,8 +26562,19 @@
       <c r="H107" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J107" t="s">
+        <v>15</v>
+      </c>
+      <c r="K107">
+        <f>COUNTIF(H102:H121,"early active")</f>
+        <v>0</v>
+      </c>
+      <c r="L107">
+        <f>K107/SUM(K$107:K$111)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>7</v>
       </c>
@@ -25741,8 +26599,19 @@
       <c r="H108" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J108" t="s">
+        <v>17</v>
+      </c>
+      <c r="K108">
+        <f>COUNTIF(H102:H121,"late active")</f>
+        <v>0</v>
+      </c>
+      <c r="L108">
+        <f t="shared" ref="L108:L111" si="5">K108/SUM(K$107:K$111)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>8</v>
       </c>
@@ -25767,8 +26636,19 @@
       <c r="H109" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J109" t="s">
+        <v>13</v>
+      </c>
+      <c r="K109">
+        <f>COUNTIF(H102:H121,"mature")</f>
+        <v>17</v>
+      </c>
+      <c r="L109">
+        <f t="shared" si="5"/>
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>9</v>
       </c>
@@ -25793,8 +26673,19 @@
       <c r="H110" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J110" t="s">
+        <v>24</v>
+      </c>
+      <c r="K110">
+        <f>COUNTIF(H102:H121,"spawned")</f>
+        <v>3</v>
+      </c>
+      <c r="L110">
+        <f t="shared" si="5"/>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>10</v>
       </c>
@@ -25819,8 +26710,19 @@
       <c r="H111" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J111" t="s">
+        <v>22</v>
+      </c>
+      <c r="K111">
+        <f>COUNTIF(H102:H121,"reabsorbing")</f>
+        <v>0</v>
+      </c>
+      <c r="L111">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>11</v>
       </c>
@@ -25846,7 +26748,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>12</v>
       </c>
@@ -25872,7 +26774,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>13</v>
       </c>
@@ -25898,7 +26800,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>14</v>
       </c>
@@ -25924,7 +26826,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>15</v>
       </c>
@@ -25950,7 +26852,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>16</v>
       </c>
@@ -25976,7 +26878,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>17</v>
       </c>
@@ -26002,7 +26904,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>18</v>
       </c>
@@ -26028,7 +26930,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>19</v>
       </c>
@@ -26054,7 +26956,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>20</v>
       </c>
@@ -26080,7 +26982,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>1</v>
       </c>
@@ -26106,7 +27008,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>2</v>
       </c>
@@ -26132,7 +27034,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>3</v>
       </c>
@@ -26158,7 +27060,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>4</v>
       </c>
@@ -26184,7 +27086,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>5</v>
       </c>
@@ -26210,7 +27112,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>6</v>
       </c>
@@ -26235,8 +27137,19 @@
       <c r="H127" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J127" t="s">
+        <v>15</v>
+      </c>
+      <c r="K127">
+        <f>COUNTIF(H122:H141,"early active")</f>
+        <v>0</v>
+      </c>
+      <c r="L127">
+        <f>K127/SUM(K$127:K$131)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>7</v>
       </c>
@@ -26261,8 +27174,19 @@
       <c r="H128" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J128" t="s">
+        <v>17</v>
+      </c>
+      <c r="K128">
+        <f>COUNTIF(H122:H141,"late active")</f>
+        <v>0</v>
+      </c>
+      <c r="L128">
+        <f t="shared" ref="L128:L131" si="6">K128/SUM(K$127:K$131)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>8</v>
       </c>
@@ -26287,8 +27211,19 @@
       <c r="H129" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J129" t="s">
+        <v>13</v>
+      </c>
+      <c r="K129">
+        <f>COUNTIF(H122:H141,"mature")</f>
+        <v>1</v>
+      </c>
+      <c r="L129">
+        <f t="shared" si="6"/>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>9</v>
       </c>
@@ -26313,8 +27248,19 @@
       <c r="H130" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J130" t="s">
+        <v>24</v>
+      </c>
+      <c r="K130">
+        <f>COUNTIF(H122:H141,"spawned")</f>
+        <v>6</v>
+      </c>
+      <c r="L130">
+        <f t="shared" si="6"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>10</v>
       </c>
@@ -26339,8 +27285,19 @@
       <c r="H131" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J131" t="s">
+        <v>22</v>
+      </c>
+      <c r="K131">
+        <f>COUNTIF(H122:H141,"reabsorbing")</f>
+        <v>13</v>
+      </c>
+      <c r="L131">
+        <f t="shared" si="6"/>
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>11</v>
       </c>
@@ -26366,7 +27323,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>12</v>
       </c>
@@ -26392,7 +27349,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>13</v>
       </c>
@@ -26418,7 +27375,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>14</v>
       </c>
@@ -26444,7 +27401,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>15</v>
       </c>
@@ -26470,7 +27427,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>16</v>
       </c>
@@ -26496,7 +27453,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>17</v>
       </c>
@@ -26522,7 +27479,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>18</v>
       </c>
@@ -26548,7 +27505,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>19</v>
       </c>
@@ -26574,7 +27531,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>20</v>
       </c>
@@ -26600,7 +27557,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A142" s="13">
         <v>1</v>
       </c>
@@ -26626,7 +27583,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A143" s="13">
         <v>2</v>
       </c>
@@ -26652,7 +27609,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A144" s="13">
         <v>3</v>
       </c>
@@ -26678,7 +27635,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A145" s="13">
         <v>4</v>
       </c>
@@ -26704,7 +27661,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A146" s="13">
         <v>5</v>
       </c>
@@ -26730,7 +27687,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A147" s="13">
         <v>6</v>
       </c>
@@ -26755,8 +27712,19 @@
       <c r="H147" s="13" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J147" t="s">
+        <v>15</v>
+      </c>
+      <c r="K147">
+        <f>COUNTIF(H142:H161,"early active")</f>
+        <v>0</v>
+      </c>
+      <c r="L147">
+        <f>K147/SUM(K$147:K$151)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A148" s="13">
         <v>7</v>
       </c>
@@ -26781,8 +27749,19 @@
       <c r="H148" s="13" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J148" t="s">
+        <v>17</v>
+      </c>
+      <c r="K148">
+        <f>COUNTIF(H142:H161,"late active")</f>
+        <v>0</v>
+      </c>
+      <c r="L148">
+        <f t="shared" ref="L148:L151" si="7">K148/SUM(K$147:K$151)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A149" s="15">
         <v>8</v>
       </c>
@@ -26807,8 +27786,19 @@
       <c r="H149" s="13" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J149" t="s">
+        <v>13</v>
+      </c>
+      <c r="K149">
+        <f>COUNTIF(H142:H161,"mature")</f>
+        <v>1</v>
+      </c>
+      <c r="L149">
+        <f t="shared" si="7"/>
+        <v>5.5555555555555552E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A150" s="13">
         <v>9</v>
       </c>
@@ -26833,8 +27823,19 @@
       <c r="H150" s="13" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J150" t="s">
+        <v>24</v>
+      </c>
+      <c r="K150">
+        <f>COUNTIF(H142:H161,"spawned")</f>
+        <v>6</v>
+      </c>
+      <c r="L150">
+        <f t="shared" si="7"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A151" s="15">
         <v>10</v>
       </c>
@@ -26859,8 +27860,19 @@
       <c r="H151" s="13" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J151" t="s">
+        <v>22</v>
+      </c>
+      <c r="K151">
+        <f>COUNTIF(H142:H161,"reabsorbing")</f>
+        <v>11</v>
+      </c>
+      <c r="L151">
+        <f t="shared" si="7"/>
+        <v>0.61111111111111116</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A152" s="13">
         <v>11</v>
       </c>
@@ -26886,7 +27898,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A153" s="13">
         <v>12</v>
       </c>
@@ -26912,7 +27924,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A154" s="13">
         <v>13</v>
       </c>
@@ -26938,7 +27950,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A155" s="13">
         <v>14</v>
       </c>
@@ -26964,7 +27976,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A156" s="13">
         <v>15</v>
       </c>
@@ -26990,7 +28002,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A157" s="13">
         <v>16</v>
       </c>
@@ -27016,7 +28028,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A158" s="13">
         <v>17</v>
       </c>
@@ -27042,7 +28054,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A159" s="13">
         <v>18</v>
       </c>
@@ -27068,7 +28080,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A160" s="13">
         <v>19</v>
       </c>
@@ -27094,7 +28106,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A161" s="13">
         <v>20</v>
       </c>
@@ -27120,7 +28132,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>1</v>
       </c>
@@ -27146,7 +28158,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>2</v>
       </c>
@@ -27172,7 +28184,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>3</v>
       </c>
@@ -27198,7 +28210,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>4</v>
       </c>
@@ -27224,7 +28236,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>5</v>
       </c>
@@ -27250,7 +28262,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>6</v>
       </c>
@@ -27275,8 +28287,19 @@
       <c r="H167" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J167" t="s">
+        <v>15</v>
+      </c>
+      <c r="K167">
+        <f>COUNTIF(H162:H181,"early active")</f>
+        <v>0</v>
+      </c>
+      <c r="L167">
+        <f>K167/SUM(K$167:K$171)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>7</v>
       </c>
@@ -27301,8 +28324,19 @@
       <c r="H168" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J168" t="s">
+        <v>17</v>
+      </c>
+      <c r="K168">
+        <f>COUNTIF(H162:H181,"late active")</f>
+        <v>0</v>
+      </c>
+      <c r="L168">
+        <f t="shared" ref="L168:L171" si="8">K168/SUM(K$167:K$171)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>8</v>
       </c>
@@ -27327,8 +28361,19 @@
       <c r="H169" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J169" t="s">
+        <v>13</v>
+      </c>
+      <c r="K169">
+        <f>COUNTIF(H162:H181,"mature")</f>
+        <v>0</v>
+      </c>
+      <c r="L169">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>9</v>
       </c>
@@ -27353,8 +28398,19 @@
       <c r="H170" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J170" t="s">
+        <v>24</v>
+      </c>
+      <c r="K170">
+        <f>COUNTIF(H162:H181,"spawned")</f>
+        <v>6</v>
+      </c>
+      <c r="L170">
+        <f t="shared" si="8"/>
+        <v>0.31578947368421051</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>10</v>
       </c>
@@ -27379,8 +28435,19 @@
       <c r="H171" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J171" t="s">
+        <v>22</v>
+      </c>
+      <c r="K171">
+        <f>COUNTIF(H162:H181,"reabsorbing")</f>
+        <v>13</v>
+      </c>
+      <c r="L171">
+        <f t="shared" si="8"/>
+        <v>0.68421052631578949</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>11</v>
       </c>
@@ -27406,7 +28473,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>12</v>
       </c>
@@ -27432,7 +28499,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>13</v>
       </c>
@@ -27458,7 +28525,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>14</v>
       </c>
@@ -27484,7 +28551,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>15</v>
       </c>
@@ -27510,7 +28577,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>16</v>
       </c>
@@ -27536,7 +28603,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>17</v>
       </c>
@@ -27562,7 +28629,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>18</v>
       </c>
@@ -27588,7 +28655,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>19</v>
       </c>
@@ -27614,7 +28681,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>20</v>
       </c>
@@ -27640,7 +28707,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A182" s="14">
         <v>1</v>
       </c>
@@ -27666,7 +28733,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A183" s="14">
         <v>2</v>
       </c>
@@ -27692,7 +28759,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A184" s="14">
         <v>3</v>
       </c>
@@ -27718,7 +28785,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A185" s="14">
         <v>4</v>
       </c>
@@ -27744,7 +28811,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A186" s="14">
         <v>5</v>
       </c>
@@ -27770,7 +28837,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A187" s="14">
         <v>6</v>
       </c>
@@ -27795,8 +28862,19 @@
       <c r="H187" s="13" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J187" t="s">
+        <v>15</v>
+      </c>
+      <c r="K187">
+        <f>COUNTIF(H182:H201,"early active")</f>
+        <v>0</v>
+      </c>
+      <c r="L187">
+        <f>K187/SUM(K$187:K$191)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A188" s="14">
         <v>7</v>
       </c>
@@ -27821,8 +28899,19 @@
       <c r="H188" s="13" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J188" t="s">
+        <v>17</v>
+      </c>
+      <c r="K188">
+        <f>COUNTIF(H182:H201,"late active")</f>
+        <v>0</v>
+      </c>
+      <c r="L188">
+        <f t="shared" ref="L188:L191" si="9">K188/SUM(K$187:K$191)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A189" s="14">
         <v>8</v>
       </c>
@@ -27847,8 +28936,19 @@
       <c r="H189" s="13" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J189" t="s">
+        <v>13</v>
+      </c>
+      <c r="K189">
+        <f>COUNTIF(H182:H201,"mature")</f>
+        <v>0</v>
+      </c>
+      <c r="L189">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A190" s="14">
         <v>9</v>
       </c>
@@ -27873,8 +28973,19 @@
       <c r="H190" s="13" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J190" t="s">
+        <v>24</v>
+      </c>
+      <c r="K190">
+        <f>COUNTIF(H182:H201,"spawned")</f>
+        <v>0</v>
+      </c>
+      <c r="L190">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A191" s="14">
         <v>10</v>
       </c>
@@ -27899,8 +29010,19 @@
       <c r="H191" s="13" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J191" t="s">
+        <v>22</v>
+      </c>
+      <c r="K191">
+        <f>COUNTIF(H182:H201,"reabsorbing")</f>
+        <v>18</v>
+      </c>
+      <c r="L191">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A192" s="14">
         <v>11</v>
       </c>
@@ -27926,7 +29048,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A193" s="14">
         <v>12</v>
       </c>
@@ -27952,7 +29074,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A194" s="14">
         <v>13</v>
       </c>
@@ -27978,7 +29100,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A195" s="14">
         <v>14</v>
       </c>
@@ -28004,7 +29126,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A196" s="14">
         <v>15</v>
       </c>
@@ -28030,7 +29152,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A197" s="14">
         <v>16</v>
       </c>
@@ -28056,7 +29178,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A198" s="14">
         <v>17</v>
       </c>
@@ -28082,7 +29204,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A199" s="14">
         <v>18</v>
       </c>
@@ -28108,7 +29230,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A200" s="14">
         <v>19</v>
       </c>
@@ -28134,7 +29256,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A201" s="14">
         <v>20</v>
       </c>
@@ -28160,7 +29282,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>1</v>
       </c>
@@ -28186,7 +29308,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>2</v>
       </c>
@@ -28212,7 +29334,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>3</v>
       </c>
@@ -28238,7 +29360,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>4</v>
       </c>
@@ -28264,7 +29386,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>5</v>
       </c>
@@ -28290,7 +29412,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>6</v>
       </c>
@@ -28315,8 +29437,19 @@
       <c r="H207" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J207" t="s">
+        <v>15</v>
+      </c>
+      <c r="K207">
+        <f>COUNTIF(H202:H221,"early active")</f>
+        <v>0</v>
+      </c>
+      <c r="L207">
+        <f>K207/SUM(K$207:K$211)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>7</v>
       </c>
@@ -28341,8 +29474,19 @@
       <c r="H208" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J208" t="s">
+        <v>17</v>
+      </c>
+      <c r="K208">
+        <f>COUNTIF(H202:H221,"late active")</f>
+        <v>0</v>
+      </c>
+      <c r="L208">
+        <f t="shared" ref="L208:L211" si="10">K208/SUM(K$207:K$211)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>8</v>
       </c>
@@ -28367,8 +29511,19 @@
       <c r="H209" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J209" t="s">
+        <v>13</v>
+      </c>
+      <c r="K209">
+        <f>COUNTIF(H202:H221,"mature")</f>
+        <v>0</v>
+      </c>
+      <c r="L209">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>9</v>
       </c>
@@ -28393,8 +29548,19 @@
       <c r="H210" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J210" t="s">
+        <v>24</v>
+      </c>
+      <c r="K210">
+        <f>COUNTIF(H202:H221,"spawned")</f>
+        <v>5</v>
+      </c>
+      <c r="L210">
+        <f t="shared" si="10"/>
+        <v>0.29411764705882354</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>10</v>
       </c>
@@ -28419,8 +29585,19 @@
       <c r="H211" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J211" t="s">
+        <v>22</v>
+      </c>
+      <c r="K211">
+        <f>COUNTIF(H202:H221,"reabsorbing")</f>
+        <v>12</v>
+      </c>
+      <c r="L211">
+        <f t="shared" si="10"/>
+        <v>0.70588235294117652</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>11</v>
       </c>
@@ -28446,7 +29623,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>12</v>
       </c>
@@ -28472,7 +29649,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>13</v>
       </c>
@@ -28498,7 +29675,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>14</v>
       </c>
@@ -28524,7 +29701,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>15</v>
       </c>
@@ -28550,7 +29727,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>16</v>
       </c>
@@ -28576,7 +29753,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>17</v>
       </c>
@@ -28602,7 +29779,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>18</v>
       </c>
@@ -28628,7 +29805,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>19</v>
       </c>
@@ -28654,7 +29831,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>20</v>
       </c>
@@ -28680,7 +29857,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A222" s="13">
         <v>1</v>
       </c>
@@ -28706,7 +29883,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A223" s="13">
         <v>2</v>
       </c>
@@ -28732,7 +29909,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A224" s="13">
         <v>3</v>
       </c>
@@ -28758,7 +29935,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A225" s="13">
         <v>4</v>
       </c>
@@ -28784,7 +29961,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A226" s="13">
         <v>5</v>
       </c>
@@ -28810,7 +29987,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A227" s="13">
         <v>6</v>
       </c>
@@ -28835,8 +30012,19 @@
       <c r="H227" s="13" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J227" t="s">
+        <v>15</v>
+      </c>
+      <c r="K227">
+        <f>COUNTIF(H222:H241,"early active")</f>
+        <v>0</v>
+      </c>
+      <c r="L227">
+        <f>K227/SUM(K$227:K$231)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A228" s="13">
         <v>7</v>
       </c>
@@ -28861,8 +30049,19 @@
       <c r="H228" s="13" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J228" t="s">
+        <v>17</v>
+      </c>
+      <c r="K228">
+        <f>COUNTIF(H222:H241,"late active")</f>
+        <v>0</v>
+      </c>
+      <c r="L228">
+        <f t="shared" ref="L228:L231" si="11">K228/SUM(K$227:K$231)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A229" s="13">
         <v>8</v>
       </c>
@@ -28887,8 +30086,19 @@
       <c r="H229" s="13" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J229" t="s">
+        <v>13</v>
+      </c>
+      <c r="K229">
+        <f>COUNTIF(H222:H241,"mature")</f>
+        <v>0</v>
+      </c>
+      <c r="L229">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A230" s="13">
         <v>9</v>
       </c>
@@ -28913,8 +30123,19 @@
       <c r="H230" s="13" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J230" t="s">
+        <v>24</v>
+      </c>
+      <c r="K230">
+        <f>COUNTIF(H222:H241,"spawned")</f>
+        <v>3</v>
+      </c>
+      <c r="L230">
+        <f t="shared" si="11"/>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A231" s="13">
         <v>10</v>
       </c>
@@ -28939,8 +30160,19 @@
       <c r="H231" s="13" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J231" t="s">
+        <v>22</v>
+      </c>
+      <c r="K231">
+        <f>COUNTIF(H222:H241,"reabsorbing")</f>
+        <v>17</v>
+      </c>
+      <c r="L231">
+        <f t="shared" si="11"/>
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A232" s="13">
         <v>11</v>
       </c>
@@ -28966,7 +30198,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A233" s="13">
         <v>12</v>
       </c>
@@ -28992,7 +30224,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A234" s="13">
         <v>13</v>
       </c>
@@ -29018,7 +30250,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A235" s="13">
         <v>14</v>
       </c>
@@ -29044,7 +30276,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A236" s="13">
         <v>15</v>
       </c>
@@ -29070,7 +30302,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A237" s="13">
         <v>16</v>
       </c>
@@ -29096,7 +30328,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A238" s="13">
         <v>17</v>
       </c>
@@ -29122,7 +30354,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A239" s="13">
         <v>18</v>
       </c>
@@ -29148,7 +30380,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A240" s="13">
         <v>19</v>
       </c>
